--- a/target/classes/data/variables/Niguarda_v1.xlsx
+++ b/target/classes/data/variables/Niguarda_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics.csv" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t xml:space="preserve">csvFile</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">conceptPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methodology</t>
   </si>
   <si>
     <t xml:space="preserve">Demographics</t>
@@ -335,8 +338,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -422,7 +424,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -432,6 +434,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -480,17 +486,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -524,56 +530,59 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -592,19 +601,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="86.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="85.5867346938775"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,302 +647,305 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="I5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="A6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="A7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="A10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>43</v>
       </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="A12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="A13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="A16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="7" t="s">
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="7" t="s">
+      <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="7" t="s">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>61</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -952,19 +964,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="77.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="76.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -998,242 +1010,245 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="A4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="H6" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>71</v>
       </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="A8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>75</v>
       </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="A10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>77</v>
       </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="A11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>81</v>
       </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="A13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="A14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>85</v>
       </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="A15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>90</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/data/variables/Niguarda_v1.xlsx
+++ b/target/classes/data/variables/Niguarda_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics.csv" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="107">
   <si>
     <t xml:space="preserve">csvFile</t>
   </si>
@@ -72,6 +72,9 @@
     <t xml:space="preserve">Patient ID</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/pet/av45</t>
+  </si>
+  <si>
     <t xml:space="preserve">SESSO</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
     <t xml:space="preserve">Gender: M/F</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/pet/fdg</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATA_NASCITA</t>
   </si>
   <si>
@@ -93,6 +99,9 @@
     <t xml:space="preserve">Date of Birth</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/pet/pib</t>
+  </si>
+  <si>
     <t xml:space="preserve">Medical_report</t>
   </si>
   <si>
@@ -123,70 +132,106 @@
     <t xml:space="preserve">1 means R and 2 means L</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/brainstem</t>
+  </si>
+  <si>
     <t xml:space="preserve">EDUCATION</t>
   </si>
   <si>
     <t xml:space="preserve">Years of Education</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/tiv</t>
+  </si>
+  <si>
     <t xml:space="preserve">PROFILO_CLINICO</t>
   </si>
   <si>
     <t xml:space="preserve">DIAGNOSIS CATEGORY</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/csf_volume/_3rdventricle</t>
+  </si>
+  <si>
     <t xml:space="preserve">MMSE_SCORE</t>
   </si>
   <si>
     <t xml:space="preserve">Mini Mental State Examination (MMSE) total score</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/csf_volume/_4thventricle</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORIENTATION_TO_TIME</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE subscore for orientation to time</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/csf_volume/csfglobal</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORIENTATION_TO_PLACE</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE subscore for orientation to place</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/csf_volume/leftinflatvent</t>
+  </si>
+  <si>
     <t xml:space="preserve">REGISTRATION</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE subscore for registration</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/csf_volume/leftlateralventricle</t>
+  </si>
+  <si>
     <t xml:space="preserve">CALCULATION</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE subscore for calculation</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/csf_volume/rightinflatvent</t>
+  </si>
+  <si>
     <t xml:space="preserve">ATTENTION</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE subscore for attention</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/csf_volume/rightlateralventricle</t>
+  </si>
+  <si>
     <t xml:space="preserve">RECALL</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE subscore for recall</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesiv</t>
+  </si>
+  <si>
     <t xml:space="preserve">LANGUAGE</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE subscore for language</t>
   </si>
   <si>
+    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesviiix</t>
+  </si>
+  <si>
     <t xml:space="preserve">REPETITION</t>
   </si>
   <si>
     <t xml:space="preserve">MMSE subscore for repetition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/root/brain_anatomy/grey_matter_volume/cerebellum/cerebellarvermallobulesvivii</t>
   </si>
   <si>
     <t xml:space="preserve">STAGE_COMMANDS_3  </t>
@@ -307,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -341,6 +386,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -358,12 +404,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="'Arial'"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -461,7 +501,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -488,15 +528,15 @@
   </sheetPr>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,23 +591,29 @@
       <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,14 +621,17 @@
         <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -604,16 +653,16 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="85.5867346938775"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="84.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +702,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
@@ -668,284 +717,341 @@
       <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>44</v>
+        <v>53</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>50</v>
+        <v>62</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>56</v>
+        <v>71</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -966,17 +1072,17 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="76.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="76"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1016,7 +1122,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
@@ -1031,224 +1137,269 @@
       <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>70</v>
+        <v>85</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>72</v>
+        <v>87</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>74</v>
+        <v>89</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>84</v>
+        <v>99</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>88</v>
+        <v>103</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>91</v>
+        <v>106</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/data/variables/Niguarda_v1.xlsx
+++ b/target/classes/data/variables/Niguarda_v1.xlsx
@@ -5,12 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Demographics.csv" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Medical_report.csv" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Episode.csv" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="107">
   <si>
     <t xml:space="preserve">csvFile</t>
   </si>
@@ -526,17 +524,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,154 +634,25 @@
         <v>25</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K20"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="84.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6326530612245"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,17 +660,20 @@
         <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,17 +681,17 @@
         <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -825,17 +699,23 @@
         <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,17 +723,17 @@
         <v>26</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,544 +741,532 @@
         <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K16"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="76"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="13.6326530612245"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>78</v>
+      <c r="A11" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>78</v>
+      <c r="A12" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>78</v>
+      <c r="A13" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>78</v>
+      <c r="A14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>78</v>
+      <c r="A15" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>66</v>
+        <v>56</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>78</v>
+      <c r="A16" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="0" t="s">
+      <c r="J38" s="0" t="s">
         <v>69</v>
       </c>
     </row>
